--- a/Jogos_do_Dia/2023-06-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>League</t>
   </si>
@@ -142,18 +142,21 @@
     <t>Brazil Serie D</t>
   </si>
   <si>
+    <t>South America Copa Libertadores</t>
+  </si>
+  <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
-    <t>South America Copa Libertadores</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
+    <t>USA USL Championship</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -172,21 +175,27 @@
     <t>14:00:00</t>
   </si>
   <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
     <t>15:30:00</t>
   </si>
   <si>
     <t>16:15:00</t>
   </si>
   <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
     <t>19:00:00</t>
   </si>
   <si>
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
     <t>Shimizu S-Pulse</t>
   </si>
   <si>
@@ -196,85 +205,115 @@
     <t>Urawa Reds</t>
   </si>
   <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
+    <t>Shanghai Shenhua</t>
+  </si>
+  <si>
     <t>Tianjin Teda</t>
   </si>
   <si>
-    <t>Shanghai Shenhua</t>
-  </si>
-  <si>
-    <t>Shijiazhuang Ever Bright</t>
-  </si>
-  <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Tallinna Kalev</t>
   </si>
   <si>
+    <t>Tallinna FC Levadia</t>
+  </si>
+  <si>
     <t>Al Masry</t>
   </si>
   <si>
-    <t>Tallinna FC Levadia</t>
-  </si>
-  <si>
     <t>ÍBV</t>
   </si>
   <si>
+    <t>Cordino</t>
+  </si>
+  <si>
+    <t>Fluminense PI</t>
+  </si>
+  <si>
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Fluminense PI</t>
+    <t>KR</t>
   </si>
   <si>
     <t>Fram</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>Cordino</t>
+    <t>Iguatu</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Ferroviário</t>
+  </si>
+  <si>
+    <t>Universidad Chile</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Bahia de Feira</t>
+  </si>
+  <si>
+    <t>Internacional</t>
   </si>
   <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Ferroviário</t>
-  </si>
-  <si>
-    <t>Iguatu</t>
-  </si>
-  <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>Universidad Chile</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <t>Internacional</t>
+    <t>Nacional de Patos</t>
+  </si>
+  <si>
+    <t>Retrô</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>Sousa</t>
   </si>
   <si>
     <t>ASA</t>
   </si>
   <si>
-    <t>Nacional de Patos</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
-    <t>Retrô</t>
-  </si>
-  <si>
-    <t>CSA</t>
+    <t>Náutico</t>
+  </si>
+  <si>
+    <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
   </si>
   <si>
     <t>Blaublitz Akita</t>
@@ -286,85 +325,115 @@
     <t>Shonan Bellmare</t>
   </si>
   <si>
+    <t>Dalian Yifang</t>
+  </si>
+  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
     <t>Qingdao Jonoon</t>
   </si>
   <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
-    <t>Dalian Yifang</t>
-  </si>
-  <si>
     <t>Harju Jalgpallikool</t>
   </si>
   <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>Tallinna FC Flora</t>
-  </si>
-  <si>
     <t>KA</t>
   </si>
   <si>
+    <t>Parnahyba</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
     <t>Smouha SC</t>
   </si>
   <si>
-    <t>Maranhão</t>
+    <t>Keflavík</t>
   </si>
   <si>
     <t>HK</t>
   </si>
   <si>
-    <t>Keflavík</t>
-  </si>
-  <si>
-    <t>Parnahyba</t>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
+    <t>Uniclinic</t>
+  </si>
+  <si>
+    <t>Universidad Católica</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
+    <t>Atlético Alagoinhas</t>
+  </si>
+  <si>
+    <t>Independiente Medellín</t>
   </si>
   <si>
     <t>Avaí</t>
   </si>
   <si>
-    <t>Atlético GO</t>
-  </si>
-  <si>
-    <t>Uniclinic</t>
-  </si>
-  <si>
-    <t>Globo</t>
-  </si>
-  <si>
-    <t>Atlético Alagoinhas</t>
-  </si>
-  <si>
-    <t>Universidad Católica</t>
-  </si>
-  <si>
-    <t>Metropolitanos</t>
-  </si>
-  <si>
-    <t>Independiente Medellín</t>
+    <t>Campinense</t>
+  </si>
+  <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
+    <t>América RN</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
   </si>
   <si>
     <t>Falcon</t>
   </si>
   <si>
-    <t>Campinense</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
-    <t>América RN</t>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Liverpool FC Montevideo</t>
+  </si>
+  <si>
+    <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Sampaio Corrêa</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
+    <t>Ñublense</t>
+  </si>
+  <si>
+    <t>Rio Grande Valley</t>
   </si>
 </sst>
 </file>
@@ -726,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,19 +916,19 @@
         <v>45105</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H2">
         <v>4.33</v>
@@ -880,10 +949,10 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="O2">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -931,7 +1000,7 @@
         <v>3.75</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF2">
         <v>1.38</v>
@@ -954,25 +1023,25 @@
         <v>45105</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
         <v>1.02</v>
@@ -987,10 +1056,10 @@
         <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="O3">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1038,7 +1107,7 @@
         <v>3.2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF3">
         <v>1.49</v>
@@ -1061,25 +1130,25 @@
         <v>45105</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G4">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>4.69</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -1094,10 +1163,10 @@
         <v>3.32</v>
       </c>
       <c r="N4">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1168,100 +1237,100 @@
         <v>45105</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G5">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="H5">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>10.25</v>
+        <v>20.5</v>
       </c>
       <c r="L5">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="M5">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="N5">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="O5">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="P5">
+        <v>1.29</v>
+      </c>
+      <c r="Q5">
+        <v>3.5</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>1.03</v>
+      </c>
+      <c r="U5">
+        <v>1.11</v>
+      </c>
+      <c r="V5">
+        <v>3.3</v>
+      </c>
+      <c r="W5">
+        <v>0.8</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1.68</v>
+      </c>
+      <c r="Z5">
         <v>1.36</v>
       </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
-      </c>
-      <c r="T5">
-        <v>1.11</v>
-      </c>
-      <c r="U5">
-        <v>1.18</v>
-      </c>
-      <c r="V5">
-        <v>2.3</v>
-      </c>
-      <c r="W5">
-        <v>1.2</v>
-      </c>
-      <c r="X5">
-        <v>0.83</v>
-      </c>
-      <c r="Y5">
-        <v>1.45</v>
-      </c>
-      <c r="Z5">
-        <v>1.17</v>
-      </c>
       <c r="AA5">
-        <v>2.62</v>
+        <v>3.04</v>
       </c>
       <c r="AB5">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AE5">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF5">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AG5">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AH5">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AI5">
         <v>3.8</v>
@@ -1275,103 +1344,103 @@
         <v>45105</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G6">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H6">
-        <v>3.46</v>
+        <v>3.75</v>
       </c>
       <c r="I6">
-        <v>4.53</v>
+        <v>4.75</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K6">
-        <v>7.6</v>
+        <v>10.25</v>
       </c>
       <c r="L6">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M6">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="O6">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="P6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="U6">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="W6">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="X6">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="Y6">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AA6">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AB6">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AC6">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE6">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AF6">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AG6">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AH6">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AI6">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1382,103 +1451,103 @@
         <v>45105</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="H7">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="I7">
-        <v>6.5</v>
+        <v>2.84</v>
       </c>
       <c r="J7">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K7">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L7">
+        <v>1.3</v>
+      </c>
+      <c r="M7">
+        <v>3.2</v>
+      </c>
+      <c r="N7">
+        <v>1.99</v>
+      </c>
+      <c r="O7">
+        <v>1.82</v>
+      </c>
+      <c r="P7">
         <v>1.4</v>
       </c>
-      <c r="M7">
-        <v>2.85</v>
-      </c>
-      <c r="N7">
-        <v>2.09</v>
-      </c>
-      <c r="O7">
-        <v>1.61</v>
-      </c>
-      <c r="P7">
-        <v>1.5</v>
-      </c>
       <c r="Q7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="U7">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="X7">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="Y7">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="Z7">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AA7">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="AB7">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AC7">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD7">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="AE7">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AF7">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AG7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AH7">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="AI7">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1489,103 +1558,103 @@
         <v>45105</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G8">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="H8">
-        <v>3.39</v>
+        <v>3.75</v>
       </c>
       <c r="I8">
-        <v>2.84</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="L8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M8">
+        <v>2.85</v>
+      </c>
+      <c r="N8">
+        <v>2.15</v>
+      </c>
+      <c r="O8">
+        <v>1.66</v>
+      </c>
+      <c r="P8">
+        <v>1.5</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>2.38</v>
+      </c>
+      <c r="S8">
+        <v>1.53</v>
+      </c>
+      <c r="T8">
+        <v>1.06</v>
+      </c>
+      <c r="U8">
+        <v>1.2</v>
+      </c>
+      <c r="V8">
+        <v>2.55</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0.33</v>
+      </c>
+      <c r="Y8">
+        <v>1.53</v>
+      </c>
+      <c r="Z8">
+        <v>1.11</v>
+      </c>
+      <c r="AA8">
+        <v>2.64</v>
+      </c>
+      <c r="AB8">
+        <v>1.5</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
         <v>3.2</v>
       </c>
-      <c r="N8">
-        <v>1.99</v>
-      </c>
-      <c r="O8">
-        <v>1.82</v>
-      </c>
-      <c r="P8">
-        <v>1.4</v>
-      </c>
-      <c r="Q8">
-        <v>2.75</v>
-      </c>
-      <c r="R8">
-        <v>1.75</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>1.42</v>
-      </c>
-      <c r="U8">
-        <v>1.25</v>
-      </c>
-      <c r="V8">
-        <v>1.55</v>
-      </c>
-      <c r="W8">
-        <v>0.83</v>
-      </c>
-      <c r="X8">
-        <v>0.4</v>
-      </c>
-      <c r="Y8">
-        <v>1.35</v>
-      </c>
-      <c r="Z8">
-        <v>1.21</v>
-      </c>
-      <c r="AA8">
-        <v>2.56</v>
-      </c>
-      <c r="AB8">
-        <v>1.91</v>
-      </c>
-      <c r="AC8">
-        <v>7.5</v>
-      </c>
-      <c r="AD8">
-        <v>2.2</v>
-      </c>
       <c r="AE8">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AF8">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AG8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AH8">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="AI8">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1596,103 +1665,103 @@
         <v>45105</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G9">
-        <v>1.29</v>
+        <v>1.82</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3.46</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>4.53</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>20.5</v>
+        <v>7.6</v>
       </c>
       <c r="L9">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="M9">
-        <v>4.6</v>
+        <v>2.85</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>2.44</v>
+        <v>1.62</v>
       </c>
       <c r="P9">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="Q9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.7</v>
+      </c>
+      <c r="T9">
+        <v>1.16</v>
+      </c>
+      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.8</v>
-      </c>
-      <c r="T9">
-        <v>1.03</v>
-      </c>
-      <c r="U9">
-        <v>1.11</v>
-      </c>
-      <c r="V9">
-        <v>3.3</v>
-      </c>
       <c r="W9">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Y9">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Z9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA9">
-        <v>3.04</v>
+        <v>2.58</v>
       </c>
       <c r="AB9">
+        <v>1.5</v>
+      </c>
+      <c r="AC9">
+        <v>8.5</v>
+      </c>
+      <c r="AD9">
+        <v>3.1</v>
+      </c>
+      <c r="AE9">
+        <v>1.32</v>
+      </c>
+      <c r="AF9">
         <v>1.62</v>
       </c>
-      <c r="AC9">
-        <v>8</v>
-      </c>
-      <c r="AD9">
-        <v>2.75</v>
-      </c>
-      <c r="AE9">
-        <v>1.3</v>
-      </c>
-      <c r="AF9">
-        <v>1.59</v>
-      </c>
       <c r="AG9">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AI9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1703,19 +1772,19 @@
         <v>45105</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G10">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H10">
         <v>4.75</v>
@@ -1736,10 +1805,10 @@
         <v>4.4</v>
       </c>
       <c r="N10">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="P10">
         <v>1.29</v>
@@ -1804,85 +1873,85 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>45105</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G11">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H11">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J11">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="K11">
-        <v>5.86</v>
+        <v>10.5</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M11">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="P11">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="Q11">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="R11">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="S11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U11">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="V11">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W11">
-        <v>1.43</v>
+        <v>2.71</v>
       </c>
       <c r="X11">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="Y11">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="Z11">
-        <v>1.38</v>
+        <v>2.11</v>
       </c>
       <c r="AA11">
-        <v>2.96</v>
+        <v>3.86</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1911,85 +1980,85 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>45105</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G12">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I12">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J12">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="K12">
-        <v>10.5</v>
+        <v>5.86</v>
       </c>
       <c r="L12">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="P12">
+        <v>1.58</v>
+      </c>
+      <c r="Q12">
+        <v>2.36</v>
+      </c>
+      <c r="R12">
+        <v>2.12</v>
+      </c>
+      <c r="S12">
+        <v>1.7</v>
+      </c>
+      <c r="T12">
+        <v>1.51</v>
+      </c>
+      <c r="U12">
+        <v>1.37</v>
+      </c>
+      <c r="V12">
         <v>1.38</v>
       </c>
-      <c r="Q12">
-        <v>2.8</v>
-      </c>
-      <c r="R12">
-        <v>1.77</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>1.53</v>
-      </c>
-      <c r="U12">
-        <v>1.25</v>
-      </c>
-      <c r="V12">
-        <v>1.36</v>
-      </c>
       <c r="W12">
-        <v>2.71</v>
+        <v>1.43</v>
       </c>
       <c r="X12">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="Y12">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="Z12">
-        <v>2.11</v>
+        <v>1.38</v>
       </c>
       <c r="AA12">
-        <v>3.86</v>
+        <v>2.96</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2024,25 +2093,25 @@
         <v>45105</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J13">
         <v>1.02</v>
@@ -2057,10 +2126,10 @@
         <v>4.75</v>
       </c>
       <c r="N13">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="O13">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="P13">
         <v>1.25</v>
@@ -2125,109 +2194,109 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2">
         <v>45105</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G14">
-        <v>1.33</v>
+        <v>2.07</v>
       </c>
       <c r="H14">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I14">
-        <v>8.5</v>
+        <v>3.55</v>
       </c>
       <c r="J14">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="P14">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="U14">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="V14">
-        <v>3.14</v>
+        <v>1.66</v>
       </c>
       <c r="W14">
-        <v>2.57</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="Y14">
-        <v>1.72</v>
+        <v>2.27</v>
       </c>
       <c r="Z14">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AA14">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="AB14">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2238,25 +2307,25 @@
         <v>45105</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2271,31 +2340,31 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W15">
         <v>1.25</v>
@@ -2339,109 +2408,109 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <v>45105</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="H16">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="L16">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="M16">
-        <v>5.3</v>
+        <v>3.56</v>
       </c>
       <c r="N16">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="O16">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="P16">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q16">
-        <v>3.82</v>
+        <v>3.15</v>
       </c>
       <c r="R16">
-        <v>1.43</v>
+        <v>2.12</v>
       </c>
       <c r="S16">
-        <v>2.7</v>
+        <v>1.64</v>
       </c>
       <c r="T16">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="U16">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="V16">
-        <v>1.79</v>
+        <v>3.14</v>
       </c>
       <c r="W16">
-        <v>1.67</v>
+        <v>2.57</v>
       </c>
       <c r="X16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y16">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Z16">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AA16">
-        <v>3.13</v>
+        <v>2.9</v>
       </c>
       <c r="AB16">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AC16">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD16">
-        <v>2.35</v>
+        <v>4.55</v>
       </c>
       <c r="AE16">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AF16">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AG16">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="AH16">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="AI16">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2452,25 +2521,25 @@
         <v>45105</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G17">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H17">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2485,10 +2554,10 @@
         <v>4.5</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="P17">
         <v>1.29</v>
@@ -2553,192 +2622,192 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>45105</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X18">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y18">
+        <v>1.68</v>
+      </c>
+      <c r="Z18">
+        <v>1.45</v>
+      </c>
+      <c r="AA18">
+        <v>3.13</v>
+      </c>
+      <c r="AB18">
+        <v>1.75</v>
+      </c>
+      <c r="AC18">
+        <v>8.5</v>
+      </c>
+      <c r="AD18">
+        <v>2.35</v>
+      </c>
+      <c r="AE18">
+        <v>1.12</v>
+      </c>
+      <c r="AF18">
+        <v>1.25</v>
+      </c>
+      <c r="AG18">
+        <v>1.47</v>
+      </c>
+      <c r="AH18">
+        <v>1.82</v>
+      </c>
+      <c r="AI18">
         <v>2.27</v>
-      </c>
-      <c r="Z18">
-        <v>1.38</v>
-      </c>
-      <c r="AA18">
-        <v>3.65</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>45105</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G19">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="J19">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.16</v>
+        <v>1.57</v>
       </c>
       <c r="O19">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="P19">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X19">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1.57</v>
+        <v>2.03</v>
       </c>
       <c r="Z19">
-        <v>1.18</v>
+        <v>0.98</v>
       </c>
       <c r="AA19">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2773,103 +2842,103 @@
         <v>45105</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G20">
-        <v>2.75</v>
+        <v>1.22</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>2.63</v>
+        <v>15</v>
       </c>
       <c r="J20">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L20">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N20">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
+        <v>2.1</v>
+      </c>
+      <c r="P20">
+        <v>1.3</v>
+      </c>
+      <c r="Q20">
+        <v>3.4</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>1.5</v>
+      </c>
+      <c r="T20">
+        <v>1.03</v>
+      </c>
+      <c r="U20">
+        <v>1.1</v>
+      </c>
+      <c r="V20">
+        <v>4.6</v>
+      </c>
+      <c r="W20">
         <v>1.6</v>
       </c>
-      <c r="P20">
-        <v>1.51</v>
-      </c>
-      <c r="Q20">
-        <v>2.4</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1.54</v>
+      </c>
+      <c r="Z20">
+        <v>1.14</v>
+      </c>
+      <c r="AA20">
+        <v>2.68</v>
+      </c>
+      <c r="AB20">
+        <v>1.07</v>
+      </c>
+      <c r="AC20">
+        <v>13</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>1.25</v>
+      </c>
+      <c r="AF20">
+        <v>1.5</v>
+      </c>
+      <c r="AG20">
         <v>1.8</v>
       </c>
-      <c r="T20">
-        <v>1.52</v>
-      </c>
-      <c r="U20">
-        <v>1.3</v>
-      </c>
-      <c r="V20">
-        <v>1.4</v>
-      </c>
-      <c r="W20">
-        <v>0.67</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1.31</v>
-      </c>
-      <c r="Z20">
-        <v>1.35</v>
-      </c>
-      <c r="AA20">
-        <v>2.66</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2880,25 +2949,25 @@
         <v>45105</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2913,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2981,430 +3050,430 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>45105</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W22">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="Y22">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="Z22">
-        <v>0.98</v>
+        <v>1.67</v>
       </c>
       <c r="AA22">
-        <v>3.01</v>
+        <v>3.49</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>45105</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W23">
-        <v>2.2</v>
+        <v>0.67</v>
       </c>
       <c r="X23">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="Z23">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AA23">
-        <v>2.87</v>
+        <v>2.66</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
         <v>45105</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G24">
+        <v>1.64</v>
+      </c>
+      <c r="H24">
+        <v>3.4</v>
+      </c>
+      <c r="I24">
+        <v>5.09</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>2.2</v>
       </c>
-      <c r="H24">
-        <v>3.1</v>
-      </c>
-      <c r="I24">
-        <v>2.9</v>
-      </c>
-      <c r="J24">
-        <v>1.03</v>
-      </c>
-      <c r="K24">
-        <v>8.5</v>
-      </c>
-      <c r="L24">
-        <v>1.28</v>
-      </c>
-      <c r="M24">
-        <v>3.26</v>
-      </c>
-      <c r="N24">
-        <v>1.91</v>
-      </c>
       <c r="O24">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="P24">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="X24">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="Y24">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="Z24">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AA24">
-        <v>3.49</v>
+        <v>2.87</v>
       </c>
       <c r="AB24">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2">
         <v>45105</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G25">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="H25">
+        <v>4.33</v>
+      </c>
+      <c r="I25">
         <v>6.5</v>
       </c>
-      <c r="I25">
-        <v>18</v>
-      </c>
       <c r="J25">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L25">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M25">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O25">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P25">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="T25">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="U25">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="V25">
-        <v>4.6</v>
+        <v>2.55</v>
       </c>
       <c r="W25">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>1.54</v>
+        <v>2.62</v>
       </c>
       <c r="Z25">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AA25">
-        <v>2.68</v>
+        <v>4.03</v>
       </c>
       <c r="AB25">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AC25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD25">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AE25">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AF25">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AG25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AH25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AI25">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3415,103 +3484,103 @@
         <v>45105</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G26">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="H26">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I26">
+        <v>4.75</v>
+      </c>
+      <c r="J26">
+        <v>1.08</v>
+      </c>
+      <c r="K26">
         <v>7</v>
       </c>
-      <c r="J26">
-        <v>1.04</v>
-      </c>
-      <c r="K26">
-        <v>12</v>
-      </c>
       <c r="L26">
+        <v>1.36</v>
+      </c>
+      <c r="M26">
+        <v>2.95</v>
+      </c>
+      <c r="N26">
+        <v>2.15</v>
+      </c>
+      <c r="O26">
+        <v>1.65</v>
+      </c>
+      <c r="P26">
+        <v>1.45</v>
+      </c>
+      <c r="Q26">
+        <v>2.55</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.75</v>
+      </c>
+      <c r="T26">
+        <v>1.15</v>
+      </c>
+      <c r="U26">
+        <v>1.22</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0.57</v>
+      </c>
+      <c r="Y26">
+        <v>1.57</v>
+      </c>
+      <c r="Z26">
+        <v>1.18</v>
+      </c>
+      <c r="AA26">
+        <v>2.75</v>
+      </c>
+      <c r="AB26">
+        <v>1.43</v>
+      </c>
+      <c r="AC26">
+        <v>7.5</v>
+      </c>
+      <c r="AD26">
+        <v>3.75</v>
+      </c>
+      <c r="AE26">
+        <v>1.14</v>
+      </c>
+      <c r="AF26">
         <v>1.28</v>
       </c>
-      <c r="M26">
-        <v>3.6</v>
-      </c>
-      <c r="N26">
-        <v>1.78</v>
-      </c>
-      <c r="O26">
-        <v>1.86</v>
-      </c>
-      <c r="P26">
-        <v>1.36</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26">
-        <v>2.05</v>
-      </c>
-      <c r="S26">
-        <v>1.7</v>
-      </c>
-      <c r="T26">
-        <v>1.11</v>
-      </c>
-      <c r="U26">
-        <v>1.21</v>
-      </c>
-      <c r="V26">
-        <v>2.55</v>
-      </c>
-      <c r="W26">
-        <v>1.8</v>
-      </c>
-      <c r="X26">
-        <v>2</v>
-      </c>
-      <c r="Y26">
-        <v>2.62</v>
-      </c>
-      <c r="Z26">
-        <v>1.41</v>
-      </c>
-      <c r="AA26">
-        <v>4.03</v>
-      </c>
-      <c r="AB26">
-        <v>1.18</v>
-      </c>
-      <c r="AC26">
-        <v>10</v>
-      </c>
-      <c r="AD26">
-        <v>6.5</v>
-      </c>
-      <c r="AE26">
-        <v>1.19</v>
-      </c>
-      <c r="AF26">
-        <v>1.44</v>
-      </c>
       <c r="AG26">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AI26">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3522,25 +3591,25 @@
         <v>45105</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3549,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3582,19 +3651,19 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y27">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="Z27">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="AA27">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3629,25 +3698,25 @@
         <v>45105</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3662,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3689,19 +3758,19 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>0.4</v>
+        <v>1.25</v>
       </c>
       <c r="Y28">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
       <c r="Z28">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="AA28">
-        <v>3.53</v>
+        <v>3.39</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3730,85 +3799,85 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
         <v>45105</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W29">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="X29">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="Z29">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AA29">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3843,25 +3912,25 @@
         <v>45105</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3876,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3903,19 +3972,19 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X30">
         <v>1.25</v>
       </c>
       <c r="Y30">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="Z30">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AA30">
-        <v>3.39</v>
+        <v>3.53</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -3944,108 +4013,1178 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>45105</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G31">
+        <v>1.77</v>
+      </c>
+      <c r="H31">
+        <v>3.25</v>
+      </c>
+      <c r="I31">
+        <v>4.42</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2.25</v>
+      </c>
+      <c r="O31">
+        <v>1.57</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.75</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1.96</v>
+      </c>
+      <c r="Z31">
+        <v>1.47</v>
+      </c>
+      <c r="AA31">
+        <v>3.43</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32">
+        <v>2.04</v>
+      </c>
+      <c r="H32">
+        <v>3.06</v>
+      </c>
+      <c r="I32">
+        <v>3.81</v>
+      </c>
+      <c r="J32">
+        <v>1.12</v>
+      </c>
+      <c r="K32">
+        <v>5.5</v>
+      </c>
+      <c r="L32">
+        <v>1.5</v>
+      </c>
+      <c r="M32">
+        <v>2.3</v>
+      </c>
+      <c r="N32">
+        <v>2.53</v>
+      </c>
+      <c r="O32">
+        <v>1.4</v>
+      </c>
+      <c r="P32">
+        <v>1.58</v>
+      </c>
+      <c r="Q32">
+        <v>2.2</v>
+      </c>
+      <c r="R32">
+        <v>2.25</v>
+      </c>
+      <c r="S32">
+        <v>1.57</v>
+      </c>
+      <c r="T32">
+        <v>1.24</v>
+      </c>
+      <c r="U32">
+        <v>1.36</v>
+      </c>
+      <c r="V32">
+        <v>1.71</v>
+      </c>
+      <c r="W32">
+        <v>2.5</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>1.57</v>
+      </c>
+      <c r="Z32">
+        <v>1.45</v>
+      </c>
+      <c r="AA32">
+        <v>3.02</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33">
+        <v>1.78</v>
+      </c>
+      <c r="H33">
+        <v>3.6</v>
+      </c>
+      <c r="I33">
+        <v>4.5</v>
+      </c>
+      <c r="J33">
+        <v>1.05</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>1.3</v>
+      </c>
+      <c r="M33">
+        <v>3.4</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1.78</v>
+      </c>
+      <c r="P33">
+        <v>1.4</v>
+      </c>
+      <c r="Q33">
+        <v>2.75</v>
+      </c>
+      <c r="R33">
+        <v>1.95</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>1.19</v>
+      </c>
+      <c r="U33">
+        <v>1.27</v>
+      </c>
+      <c r="V33">
+        <v>2.05</v>
+      </c>
+      <c r="W33">
+        <v>1.8</v>
+      </c>
+      <c r="X33">
+        <v>2.2</v>
+      </c>
+      <c r="Y33">
+        <v>2.23</v>
+      </c>
+      <c r="Z33">
+        <v>1.71</v>
+      </c>
+      <c r="AA33">
+        <v>3.94</v>
+      </c>
+      <c r="AB33">
+        <v>1.53</v>
+      </c>
+      <c r="AC33">
+        <v>7</v>
+      </c>
+      <c r="AD33">
+        <v>3.25</v>
+      </c>
+      <c r="AE33">
+        <v>1.54</v>
+      </c>
+      <c r="AF33">
+        <v>1.94</v>
+      </c>
+      <c r="AG33">
+        <v>2.41</v>
+      </c>
+      <c r="AH33">
+        <v>2.6</v>
+      </c>
+      <c r="AI33">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34">
+        <v>1.33</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>9.5</v>
+      </c>
+      <c r="J34">
+        <v>1.02</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>1.2</v>
+      </c>
+      <c r="M34">
+        <v>4.33</v>
+      </c>
+      <c r="N34">
+        <v>1.68</v>
+      </c>
+      <c r="O34">
+        <v>2.15</v>
+      </c>
+      <c r="P34">
+        <v>1.3</v>
+      </c>
+      <c r="Q34">
+        <v>3.4</v>
+      </c>
+      <c r="R34">
         <v>1.91</v>
       </c>
-      <c r="H31">
+      <c r="S34">
+        <v>1.91</v>
+      </c>
+      <c r="T34">
+        <v>1.07</v>
+      </c>
+      <c r="U34">
+        <v>1.15</v>
+      </c>
+      <c r="V34">
+        <v>3.3</v>
+      </c>
+      <c r="W34">
+        <v>0.8</v>
+      </c>
+      <c r="X34">
+        <v>0.8</v>
+      </c>
+      <c r="Y34">
+        <v>1.64</v>
+      </c>
+      <c r="Z34">
+        <v>0.54</v>
+      </c>
+      <c r="AA34">
+        <v>2.18</v>
+      </c>
+      <c r="AB34">
+        <v>1.14</v>
+      </c>
+      <c r="AC34">
+        <v>11</v>
+      </c>
+      <c r="AD34">
+        <v>7.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.27</v>
+      </c>
+      <c r="AF34">
+        <v>1.48</v>
+      </c>
+      <c r="AG34">
+        <v>1.79</v>
+      </c>
+      <c r="AH34">
+        <v>2.22</v>
+      </c>
+      <c r="AI34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35">
+        <v>1.1</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <v>1.01</v>
+      </c>
+      <c r="K35">
+        <v>19</v>
+      </c>
+      <c r="L35">
+        <v>1.17</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>1.6</v>
+      </c>
+      <c r="O35">
+        <v>2.21</v>
+      </c>
+      <c r="P35">
+        <v>1.25</v>
+      </c>
+      <c r="Q35">
+        <v>3.75</v>
+      </c>
+      <c r="R35">
+        <v>2.63</v>
+      </c>
+      <c r="S35">
+        <v>1.44</v>
+      </c>
+      <c r="T35">
+        <v>1.02</v>
+      </c>
+      <c r="U35">
+        <v>1.07</v>
+      </c>
+      <c r="V35">
+        <v>5.75</v>
+      </c>
+      <c r="W35">
+        <v>1.6</v>
+      </c>
+      <c r="X35">
+        <v>0.8</v>
+      </c>
+      <c r="Y35">
+        <v>1.3</v>
+      </c>
+      <c r="Z35">
+        <v>0.87</v>
+      </c>
+      <c r="AA35">
+        <v>2.17</v>
+      </c>
+      <c r="AB35">
+        <v>1.01</v>
+      </c>
+      <c r="AC35">
+        <v>20</v>
+      </c>
+      <c r="AD35">
+        <v>21</v>
+      </c>
+      <c r="AE35">
+        <v>1.23</v>
+      </c>
+      <c r="AF35">
+        <v>1.52</v>
+      </c>
+      <c r="AG35">
+        <v>1.81</v>
+      </c>
+      <c r="AH35">
+        <v>2.26</v>
+      </c>
+      <c r="AI35">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36">
+        <v>2.45</v>
+      </c>
+      <c r="H36">
         <v>3.1</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
+      <c r="I36">
+        <v>2.95</v>
+      </c>
+      <c r="J36">
+        <v>1.1</v>
+      </c>
+      <c r="K36">
+        <v>6.5</v>
+      </c>
+      <c r="L36">
+        <v>1.42</v>
+      </c>
+      <c r="M36">
+        <v>2.7</v>
+      </c>
+      <c r="N36">
+        <v>2.35</v>
+      </c>
+      <c r="O36">
+        <v>1.55</v>
+      </c>
+      <c r="P36">
+        <v>1.5</v>
+      </c>
+      <c r="Q36">
+        <v>2.5</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>1.73</v>
+      </c>
+      <c r="T36">
+        <v>1.39</v>
+      </c>
+      <c r="U36">
+        <v>1.34</v>
+      </c>
+      <c r="V36">
+        <v>1.51</v>
+      </c>
+      <c r="W36">
+        <v>2.17</v>
+      </c>
+      <c r="X36">
+        <v>1.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.4</v>
+      </c>
+      <c r="Z36">
+        <v>1.45</v>
+      </c>
+      <c r="AA36">
+        <v>2.85</v>
+      </c>
+      <c r="AB36">
+        <v>1.91</v>
+      </c>
+      <c r="AC36">
+        <v>7</v>
+      </c>
+      <c r="AD36">
+        <v>2.3</v>
+      </c>
+      <c r="AE36">
+        <v>1.19</v>
+      </c>
+      <c r="AF36">
+        <v>1.36</v>
+      </c>
+      <c r="AG36">
+        <v>1.64</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37">
+        <v>2.7</v>
+      </c>
+      <c r="H37">
+        <v>3.1</v>
+      </c>
+      <c r="I37">
+        <v>2.7</v>
+      </c>
+      <c r="J37">
+        <v>1.08</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>1.45</v>
+      </c>
+      <c r="M37">
+        <v>2.65</v>
+      </c>
+      <c r="N37">
+        <v>2.2</v>
+      </c>
+      <c r="O37">
+        <v>1.62</v>
+      </c>
+      <c r="P37">
+        <v>1.53</v>
+      </c>
+      <c r="Q37">
+        <v>2.38</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1.73</v>
+      </c>
+      <c r="T37">
+        <v>1.47</v>
+      </c>
+      <c r="U37">
+        <v>1.35</v>
+      </c>
+      <c r="V37">
+        <v>1.42</v>
+      </c>
+      <c r="W37">
+        <v>1.17</v>
+      </c>
+      <c r="X37">
+        <v>1.29</v>
+      </c>
+      <c r="Y37">
+        <v>1.33</v>
+      </c>
+      <c r="Z37">
+        <v>1.39</v>
+      </c>
+      <c r="AA37">
+        <v>2.72</v>
+      </c>
+      <c r="AB37">
+        <v>1.85</v>
+      </c>
+      <c r="AC37">
+        <v>7</v>
+      </c>
+      <c r="AD37">
+        <v>2.4</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>1.35</v>
+      </c>
+      <c r="AG37">
+        <v>1.62</v>
+      </c>
+      <c r="AH37">
+        <v>2.01</v>
+      </c>
+      <c r="AI37">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38">
+        <v>1.62</v>
+      </c>
+      <c r="H38">
+        <v>3.75</v>
+      </c>
+      <c r="I38">
+        <v>5.5</v>
+      </c>
+      <c r="J38">
+        <v>1.1</v>
+      </c>
+      <c r="K38">
+        <v>6.5</v>
+      </c>
+      <c r="L38">
+        <v>1.36</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>2.25</v>
+      </c>
+      <c r="O38">
+        <v>1.6</v>
+      </c>
+      <c r="P38">
+        <v>1.44</v>
+      </c>
+      <c r="Q38">
+        <v>2.63</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>1.62</v>
+      </c>
+      <c r="T38">
         <v>1.12</v>
       </c>
-      <c r="K31">
-        <v>5.5</v>
-      </c>
-      <c r="L31">
+      <c r="U38">
+        <v>1.22</v>
+      </c>
+      <c r="V38">
+        <v>2.15</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>0.67</v>
+      </c>
+      <c r="Y38">
+        <v>1.73</v>
+      </c>
+      <c r="Z38">
+        <v>1.33</v>
+      </c>
+      <c r="AA38">
+        <v>3.06</v>
+      </c>
+      <c r="AB38">
+        <v>1.43</v>
+      </c>
+      <c r="AC38">
+        <v>7.5</v>
+      </c>
+      <c r="AD38">
+        <v>3.75</v>
+      </c>
+      <c r="AE38">
+        <v>1.27</v>
+      </c>
+      <c r="AF38">
         <v>1.53</v>
       </c>
-      <c r="M31">
-        <v>2.35</v>
-      </c>
-      <c r="N31">
+      <c r="AG38">
+        <v>1.86</v>
+      </c>
+      <c r="AH38">
+        <v>2.28</v>
+      </c>
+      <c r="AI38">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39">
+        <v>2.3</v>
+      </c>
+      <c r="H39">
+        <v>3.1</v>
+      </c>
+      <c r="I39">
+        <v>3.25</v>
+      </c>
+      <c r="J39">
+        <v>1.1</v>
+      </c>
+      <c r="K39">
+        <v>6.5</v>
+      </c>
+      <c r="L39">
+        <v>1.47</v>
+      </c>
+      <c r="M39">
         <v>2.55</v>
       </c>
-      <c r="O31">
-        <v>1.39</v>
-      </c>
-      <c r="P31">
+      <c r="N39">
+        <v>2.5</v>
+      </c>
+      <c r="O39">
+        <v>1.5</v>
+      </c>
+      <c r="P39">
+        <v>1.53</v>
+      </c>
+      <c r="Q39">
+        <v>2.38</v>
+      </c>
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>1.67</v>
+      </c>
+      <c r="T39">
+        <v>1.32</v>
+      </c>
+      <c r="U39">
+        <v>1.35</v>
+      </c>
+      <c r="V39">
         <v>1.58</v>
       </c>
-      <c r="Q31">
-        <v>2.2</v>
-      </c>
-      <c r="R31">
-        <v>2.3</v>
-      </c>
-      <c r="S31">
-        <v>1.53</v>
-      </c>
-      <c r="T31">
-        <v>1.2</v>
-      </c>
-      <c r="U31">
-        <v>1.34</v>
-      </c>
-      <c r="V31">
+      <c r="W39">
         <v>1.83</v>
       </c>
-      <c r="W31">
-        <v>1.6</v>
-      </c>
-      <c r="X31">
-        <v>0.5</v>
-      </c>
-      <c r="Y31">
+      <c r="X39">
+        <v>0.33</v>
+      </c>
+      <c r="Y39">
+        <v>1.35</v>
+      </c>
+      <c r="Z39">
+        <v>1.16</v>
+      </c>
+      <c r="AA39">
+        <v>2.51</v>
+      </c>
+      <c r="AB39">
+        <v>1.75</v>
+      </c>
+      <c r="AC39">
+        <v>7.5</v>
+      </c>
+      <c r="AD39">
+        <v>2.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.19</v>
+      </c>
+      <c r="AF39">
+        <v>1.36</v>
+      </c>
+      <c r="AG39">
+        <v>1.63</v>
+      </c>
+      <c r="AH39">
+        <v>2.01</v>
+      </c>
+      <c r="AI39">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40">
+        <v>1.38</v>
+      </c>
+      <c r="H40">
+        <v>4.75</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>1.03</v>
+      </c>
+      <c r="K40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>1.25</v>
+      </c>
+      <c r="M40">
+        <v>3.75</v>
+      </c>
+      <c r="N40">
+        <v>1.78</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1.33</v>
+      </c>
+      <c r="Q40">
+        <v>3.25</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>1.75</v>
+      </c>
+      <c r="T40">
+        <v>1.1</v>
+      </c>
+      <c r="U40">
+        <v>1.19</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1.3</v>
+      </c>
+      <c r="Z40">
+        <v>0.66</v>
+      </c>
+      <c r="AA40">
+        <v>1.96</v>
+      </c>
+      <c r="AB40">
+        <v>1.13</v>
+      </c>
+      <c r="AC40">
+        <v>11</v>
+      </c>
+      <c r="AD40">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <v>1.31</v>
+      </c>
+      <c r="AF40">
+        <v>1.64</v>
+      </c>
+      <c r="AG40">
+        <v>2.01</v>
+      </c>
+      <c r="AH40">
+        <v>2.5</v>
+      </c>
+      <c r="AI40">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41">
         <v>1.87</v>
       </c>
-      <c r="Z31">
-        <v>1.7</v>
-      </c>
-      <c r="AA31">
-        <v>3.57</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
+      <c r="H41">
+        <v>3.5</v>
+      </c>
+      <c r="I41">
+        <v>3.6</v>
+      </c>
+      <c r="J41">
+        <v>1.04</v>
+      </c>
+      <c r="K41">
+        <v>12.25</v>
+      </c>
+      <c r="L41">
+        <v>1.26</v>
+      </c>
+      <c r="M41">
+        <v>3.5</v>
+      </c>
+      <c r="N41">
+        <v>1.87</v>
+      </c>
+      <c r="O41">
+        <v>1.83</v>
+      </c>
+      <c r="P41">
+        <v>1.38</v>
+      </c>
+      <c r="Q41">
+        <v>2.85</v>
+      </c>
+      <c r="R41">
+        <v>1.72</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>1.22</v>
+      </c>
+      <c r="U41">
+        <v>1.29</v>
+      </c>
+      <c r="V41">
+        <v>1.83</v>
+      </c>
+      <c r="W41">
+        <v>1.71</v>
+      </c>
+      <c r="X41">
+        <v>1.33</v>
+      </c>
+      <c r="Y41">
+        <v>1.44</v>
+      </c>
+      <c r="Z41">
+        <v>1.18</v>
+      </c>
+      <c r="AA41">
+        <v>2.62</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -145,12 +145,12 @@
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -208,27 +208,27 @@
     <t>Wuhan Three Towns</t>
   </si>
   <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
+    <t>Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t>Tianjin Teda</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
-    <t>Shijiazhuang Ever Bright</t>
-  </si>
-  <si>
-    <t>Shanghai Shenhua</t>
-  </si>
-  <si>
-    <t>Tianjin Teda</t>
-  </si>
-  <si>
     <t>Tallinna Kalev</t>
   </si>
   <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
     <t>Tallinna FC Levadia</t>
   </si>
   <si>
-    <t>Al Masry</t>
-  </si>
-  <si>
     <t>ÍBV</t>
   </si>
   <si>
@@ -247,69 +247,69 @@
     <t>Fram</t>
   </si>
   <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
     <t>Iguatu</t>
   </si>
   <si>
-    <t>Nacional</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Bahia de Feira</t>
+  </si>
+  <si>
+    <t>Universidad Chile</t>
   </si>
   <si>
     <t>Ferroviário</t>
   </si>
   <si>
-    <t>Universidad Chile</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Ceará</t>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Retrô</t>
+  </si>
+  <si>
+    <t>ASA</t>
   </si>
   <si>
     <t>Nacional de Patos</t>
   </si>
   <si>
-    <t>Retrô</t>
-  </si>
-  <si>
-    <t>CSA</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
-    <t>ASA</t>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Ituano</t>
   </si>
   <si>
     <t>Náutico</t>
   </si>
   <si>
-    <t>CSD Independiente del Valle</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Guarani</t>
-  </si>
-  <si>
-    <t>Londrina</t>
-  </si>
-  <si>
     <t>Vitória</t>
   </si>
   <si>
-    <t>Ituano</t>
-  </si>
-  <si>
     <t>Racing Club</t>
   </si>
   <si>
@@ -328,27 +328,27 @@
     <t>Dalian Yifang</t>
   </si>
   <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t>Qingdao Jonoon</t>
+  </si>
+  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
-    <t>Qingdao Jonoon</t>
-  </si>
-  <si>
     <t>Harju Jalgpallikool</t>
   </si>
   <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
     <t>KA</t>
   </si>
   <si>
@@ -367,67 +367,67 @@
     <t>HK</t>
   </si>
   <si>
+    <t>Independiente Medellín</t>
+  </si>
+  <si>
+    <t>Avaí</t>
+  </si>
+  <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
     <t>Globo</t>
   </si>
   <si>
-    <t>Metropolitanos</t>
+    <t>Atlético GO</t>
+  </si>
+  <si>
+    <t>Atlético Alagoinhas</t>
+  </si>
+  <si>
+    <t>Universidad Católica</t>
   </si>
   <si>
     <t>Uniclinic</t>
   </si>
   <si>
-    <t>Universidad Católica</t>
-  </si>
-  <si>
-    <t>Atlético GO</t>
-  </si>
-  <si>
-    <t>Atlético Alagoinhas</t>
-  </si>
-  <si>
-    <t>Independiente Medellín</t>
-  </si>
-  <si>
-    <t>Avaí</t>
+    <t>América RN</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
+    <t>Falcon</t>
   </si>
   <si>
     <t>Campinense</t>
   </si>
   <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
-    <t>América RN</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Falcon</t>
+    <t>Liverpool FC Montevideo</t>
+  </si>
+  <si>
+    <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
   </si>
   <si>
     <t>Amazonas</t>
   </si>
   <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Liverpool FC Montevideo</t>
-  </si>
-  <si>
-    <t>SD Aucas</t>
-  </si>
-  <si>
-    <t>Mirassol</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
     <t>Sampaio Corrêa</t>
-  </si>
-  <si>
-    <t>Ponte Preta</t>
   </si>
   <si>
     <t>Ñublense</t>
@@ -919,7 +919,7 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -928,13 +928,13 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="H2">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I2">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -949,10 +949,10 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="O2">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -976,10 +976,10 @@
         <v>2.6</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X2">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Y2">
         <v>2.01</v>
@@ -1026,7 +1026,7 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1035,13 +1035,13 @@
         <v>101</v>
       </c>
       <c r="G3">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3">
         <v>1.02</v>
@@ -1056,10 +1056,10 @@
         <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1083,10 +1083,10 @@
         <v>1.83</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y3">
         <v>1.72</v>
@@ -1142,13 +1142,13 @@
         <v>102</v>
       </c>
       <c r="G4">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H4">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I4">
-        <v>4.69</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -1163,10 +1163,10 @@
         <v>3.32</v>
       </c>
       <c r="N4">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O4">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1190,10 +1190,10 @@
         <v>1.85</v>
       </c>
       <c r="W4">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="X4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="Y4">
         <v>1.58</v>
@@ -1249,13 +1249,13 @@
         <v>103</v>
       </c>
       <c r="G5">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -1270,10 +1270,10 @@
         <v>4.6</v>
       </c>
       <c r="N5">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="P5">
         <v>1.29</v>
@@ -1297,10 +1297,10 @@
         <v>3.3</v>
       </c>
       <c r="W5">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Y5">
         <v>1.68</v>
@@ -1356,91 +1356,91 @@
         <v>104</v>
       </c>
       <c r="G6">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="H6">
-        <v>3.75</v>
+        <v>3.39</v>
       </c>
       <c r="I6">
-        <v>4.75</v>
+        <v>2.84</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6">
-        <v>10.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6">
+        <v>1.3</v>
+      </c>
+      <c r="M6">
+        <v>3.2</v>
+      </c>
+      <c r="N6">
+        <v>1.99</v>
+      </c>
+      <c r="O6">
+        <v>1.82</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>2.75</v>
+      </c>
+      <c r="R6">
+        <v>1.75</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1.42</v>
+      </c>
+      <c r="U6">
         <v>1.25</v>
       </c>
-      <c r="M6">
-        <v>3.75</v>
-      </c>
-      <c r="N6">
-        <v>1.83</v>
-      </c>
-      <c r="O6">
-        <v>1.9</v>
-      </c>
-      <c r="P6">
-        <v>1.36</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>1.8</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
-      <c r="T6">
-        <v>1.11</v>
-      </c>
-      <c r="U6">
-        <v>1.18</v>
-      </c>
       <c r="V6">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="W6">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="X6">
         <v>0.83</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="Z6">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AA6">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AB6">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AC6">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AE6">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AF6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AG6">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AI6">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1463,91 +1463,91 @@
         <v>105</v>
       </c>
       <c r="G7">
-        <v>2.45</v>
+        <v>1.48</v>
       </c>
       <c r="H7">
-        <v>3.39</v>
+        <v>4.05</v>
       </c>
       <c r="I7">
-        <v>2.84</v>
+        <v>7.4</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M7">
+        <v>2.85</v>
+      </c>
+      <c r="N7">
+        <v>2.2</v>
+      </c>
+      <c r="O7">
+        <v>1.62</v>
+      </c>
+      <c r="P7">
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>2.38</v>
+      </c>
+      <c r="S7">
+        <v>1.53</v>
+      </c>
+      <c r="T7">
+        <v>1.06</v>
+      </c>
+      <c r="U7">
+        <v>1.2</v>
+      </c>
+      <c r="V7">
+        <v>2.55</v>
+      </c>
+      <c r="W7">
+        <v>2.14</v>
+      </c>
+      <c r="X7">
+        <v>0.29</v>
+      </c>
+      <c r="Y7">
+        <v>1.53</v>
+      </c>
+      <c r="Z7">
+        <v>1.11</v>
+      </c>
+      <c r="AA7">
+        <v>2.64</v>
+      </c>
+      <c r="AB7">
+        <v>1.5</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
         <v>3.2</v>
       </c>
-      <c r="N7">
-        <v>1.99</v>
-      </c>
-      <c r="O7">
-        <v>1.82</v>
-      </c>
-      <c r="P7">
-        <v>1.4</v>
-      </c>
-      <c r="Q7">
-        <v>2.75</v>
-      </c>
-      <c r="R7">
-        <v>1.75</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>1.42</v>
-      </c>
-      <c r="U7">
-        <v>1.25</v>
-      </c>
-      <c r="V7">
-        <v>1.55</v>
-      </c>
-      <c r="W7">
-        <v>0.83</v>
-      </c>
-      <c r="X7">
-        <v>0.4</v>
-      </c>
-      <c r="Y7">
-        <v>1.35</v>
-      </c>
-      <c r="Z7">
-        <v>1.21</v>
-      </c>
-      <c r="AA7">
-        <v>2.56</v>
-      </c>
-      <c r="AB7">
-        <v>1.91</v>
-      </c>
-      <c r="AC7">
-        <v>7.5</v>
-      </c>
-      <c r="AD7">
-        <v>2.2</v>
-      </c>
       <c r="AE7">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AF7">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AG7">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AH7">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="AI7">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1570,19 +1570,19 @@
         <v>106</v>
       </c>
       <c r="G8">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="H8">
-        <v>3.75</v>
+        <v>3.46</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>4.53</v>
       </c>
       <c r="J8">
         <v>1.04</v>
       </c>
       <c r="K8">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L8">
         <v>1.4</v>
@@ -1591,10 +1591,10 @@
         <v>2.85</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="P8">
         <v>1.5</v>
@@ -1603,58 +1603,58 @@
         <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="T8">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="U8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V8">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="X8">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="Y8">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Z8">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AA8">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="AB8">
         <v>1.5</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE8">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AF8">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AG8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AI8">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1677,91 +1677,91 @@
         <v>107</v>
       </c>
       <c r="G9">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="H9">
-        <v>3.46</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>4.53</v>
+        <v>4.9</v>
       </c>
       <c r="J9">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K9">
-        <v>7.6</v>
+        <v>10.25</v>
       </c>
       <c r="L9">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M9">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="O9">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="P9">
+        <v>1.36</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>1.95</v>
+      </c>
+      <c r="T9">
+        <v>1.11</v>
+      </c>
+      <c r="U9">
+        <v>1.18</v>
+      </c>
+      <c r="V9">
+        <v>2.3</v>
+      </c>
+      <c r="W9">
         <v>1.5</v>
       </c>
-      <c r="Q9">
-        <v>2.5</v>
-      </c>
-      <c r="R9">
-        <v>2.05</v>
-      </c>
-      <c r="S9">
-        <v>1.7</v>
-      </c>
-      <c r="T9">
-        <v>1.16</v>
-      </c>
-      <c r="U9">
-        <v>1.25</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
-      <c r="W9">
-        <v>1.67</v>
-      </c>
       <c r="X9">
-        <v>0.17</v>
+        <v>0.71</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z9">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AA9">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AB9">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD9">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AF9">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AG9">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AH9">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AI9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1784,13 +1784,13 @@
         <v>108</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="H10">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1805,10 +1805,10 @@
         <v>4.4</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O10">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="P10">
         <v>1.29</v>
@@ -1832,10 +1832,10 @@
         <v>2.25</v>
       </c>
       <c r="W10">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="Y10">
         <v>1.38</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>45105</v>
@@ -1882,7 +1882,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1891,67 +1891,67 @@
         <v>109</v>
       </c>
       <c r="G11">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H11">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="I11">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="J11">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="K11">
-        <v>10.5</v>
+        <v>5.86</v>
       </c>
       <c r="L11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="P11">
+        <v>1.58</v>
+      </c>
+      <c r="Q11">
+        <v>2.36</v>
+      </c>
+      <c r="R11">
+        <v>2.12</v>
+      </c>
+      <c r="S11">
+        <v>1.7</v>
+      </c>
+      <c r="T11">
+        <v>1.51</v>
+      </c>
+      <c r="U11">
+        <v>1.37</v>
+      </c>
+      <c r="V11">
         <v>1.38</v>
       </c>
-      <c r="Q11">
-        <v>2.8</v>
-      </c>
-      <c r="R11">
-        <v>1.77</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>1.53</v>
-      </c>
-      <c r="U11">
-        <v>1.25</v>
-      </c>
-      <c r="V11">
-        <v>1.36</v>
-      </c>
       <c r="W11">
-        <v>2.71</v>
+        <v>1.43</v>
       </c>
       <c r="X11">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="Y11">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="Z11">
-        <v>2.11</v>
+        <v>1.38</v>
       </c>
       <c r="AA11">
-        <v>3.86</v>
+        <v>2.96</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>45105</v>
@@ -1989,7 +1989,7 @@
         <v>51</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>70</v>
@@ -1998,67 +1998,67 @@
         <v>110</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H12">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I12">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="J12">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>5.86</v>
+        <v>10.5</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>1.96</v>
       </c>
       <c r="O12">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="P12">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="Q12">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="R12">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="S12">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U12">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="V12">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W12">
-        <v>1.43</v>
+        <v>2.71</v>
       </c>
       <c r="X12">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="Y12">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="Z12">
-        <v>1.38</v>
+        <v>2.11</v>
       </c>
       <c r="AA12">
-        <v>2.96</v>
+        <v>3.86</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>2.6</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I13">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J13">
         <v>1.02</v>
@@ -2126,10 +2126,10 @@
         <v>4.75</v>
       </c>
       <c r="N13">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="O13">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P13">
         <v>1.25</v>
@@ -2212,37 +2212,37 @@
         <v>112</v>
       </c>
       <c r="G14">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="H14">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I14">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R14">
         <v>1.8</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2319,31 +2319,31 @@
         <v>113</v>
       </c>
       <c r="G15">
-        <v>3.85</v>
+        <v>3.68</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="I15">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O15">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P15">
         <v>1.51</v>
@@ -2426,13 +2426,13 @@
         <v>114</v>
       </c>
       <c r="G16">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H16">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J16">
         <v>1.01</v>
@@ -2447,10 +2447,10 @@
         <v>3.56</v>
       </c>
       <c r="N16">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P16">
         <v>1.35</v>
@@ -2536,7 +2536,7 @@
         <v>1.65</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I17">
         <v>4.5</v>
@@ -2640,13 +2640,13 @@
         <v>116</v>
       </c>
       <c r="G18">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H18">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I18">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2661,10 +2661,10 @@
         <v>5.3</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="O18">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="P18">
         <v>1.24</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>45105</v>
@@ -2738,7 +2738,7 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
         <v>77</v>
@@ -2747,96 +2747,96 @@
         <v>117</v>
       </c>
       <c r="G19">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="I19">
-        <v>10.1</v>
+        <v>5.73</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="O19">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="W19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>2.03</v>
+        <v>2.62</v>
       </c>
       <c r="Z19">
-        <v>0.98</v>
+        <v>1.41</v>
       </c>
       <c r="AA19">
-        <v>3.01</v>
+        <v>4.03</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>45105</v>
@@ -2845,7 +2845,7 @@
         <v>56</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
@@ -2854,96 +2854,96 @@
         <v>118</v>
       </c>
       <c r="G20">
+        <v>1.55</v>
+      </c>
+      <c r="H20">
+        <v>3.29</v>
+      </c>
+      <c r="I20">
+        <v>5.57</v>
+      </c>
+      <c r="J20">
+        <v>1.08</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>1.36</v>
+      </c>
+      <c r="M20">
+        <v>2.95</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
+        <v>1.67</v>
+      </c>
+      <c r="P20">
+        <v>1.45</v>
+      </c>
+      <c r="Q20">
+        <v>2.55</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.75</v>
+      </c>
+      <c r="T20">
+        <v>1.15</v>
+      </c>
+      <c r="U20">
         <v>1.22</v>
       </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>15</v>
-      </c>
-      <c r="J20">
-        <v>1.02</v>
-      </c>
-      <c r="K20">
-        <v>15</v>
-      </c>
-      <c r="L20">
-        <v>1.22</v>
-      </c>
-      <c r="M20">
-        <v>4.2</v>
-      </c>
-      <c r="N20">
-        <v>1.7</v>
-      </c>
-      <c r="O20">
-        <v>2.1</v>
-      </c>
-      <c r="P20">
-        <v>1.3</v>
-      </c>
-      <c r="Q20">
-        <v>3.4</v>
-      </c>
-      <c r="R20">
-        <v>2.5</v>
-      </c>
-      <c r="S20">
-        <v>1.5</v>
-      </c>
-      <c r="T20">
-        <v>1.03</v>
-      </c>
-      <c r="U20">
-        <v>1.1</v>
-      </c>
       <c r="V20">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Y20">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z20">
+        <v>1.18</v>
+      </c>
+      <c r="AA20">
+        <v>2.75</v>
+      </c>
+      <c r="AB20">
+        <v>1.43</v>
+      </c>
+      <c r="AC20">
+        <v>7.5</v>
+      </c>
+      <c r="AD20">
+        <v>3.75</v>
+      </c>
+      <c r="AE20">
         <v>1.14</v>
       </c>
-      <c r="AA20">
-        <v>2.68</v>
-      </c>
-      <c r="AB20">
-        <v>1.07</v>
-      </c>
-      <c r="AC20">
-        <v>13</v>
-      </c>
-      <c r="AD20">
-        <v>11</v>
-      </c>
-      <c r="AE20">
-        <v>1.25</v>
-      </c>
       <c r="AF20">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AG20">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="AH20">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="AI20">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>45105</v>
@@ -2952,7 +2952,7 @@
         <v>56</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>79</v>
@@ -2961,96 +2961,96 @@
         <v>119</v>
       </c>
       <c r="G21">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="H21">
-        <v>4.33</v>
+        <v>5.14</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>10.88</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="X21">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="Z21">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="AA21">
-        <v>3.62</v>
+        <v>2.68</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
         <v>45105</v>
@@ -3059,7 +3059,7 @@
         <v>56</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>80</v>
@@ -3068,96 +3068,96 @@
         <v>120</v>
       </c>
       <c r="G22">
+        <v>1.28</v>
+      </c>
+      <c r="H22">
+        <v>4.71</v>
+      </c>
+      <c r="I22">
+        <v>7.72</v>
+      </c>
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>1.18</v>
+      </c>
+      <c r="M22">
+        <v>4.3</v>
+      </c>
+      <c r="N22">
+        <v>1.6</v>
+      </c>
+      <c r="O22">
         <v>2.2</v>
       </c>
-      <c r="H22">
+      <c r="P22">
+        <v>1.28</v>
+      </c>
+      <c r="Q22">
+        <v>3.34</v>
+      </c>
+      <c r="R22">
+        <v>1.95</v>
+      </c>
+      <c r="S22">
+        <v>1.75</v>
+      </c>
+      <c r="T22">
+        <v>1.01</v>
+      </c>
+      <c r="U22">
+        <v>1.11</v>
+      </c>
+      <c r="V22">
         <v>3.1</v>
       </c>
-      <c r="I22">
-        <v>2.9</v>
-      </c>
-      <c r="J22">
-        <v>1.03</v>
-      </c>
-      <c r="K22">
-        <v>8.5</v>
-      </c>
-      <c r="L22">
-        <v>1.28</v>
-      </c>
-      <c r="M22">
-        <v>3.26</v>
-      </c>
-      <c r="N22">
-        <v>1.91</v>
-      </c>
-      <c r="O22">
-        <v>1.8</v>
-      </c>
-      <c r="P22">
-        <v>1.42</v>
-      </c>
-      <c r="Q22">
-        <v>2.75</v>
-      </c>
-      <c r="R22">
-        <v>1.74</v>
-      </c>
-      <c r="S22">
-        <v>2.02</v>
-      </c>
-      <c r="T22">
-        <v>1.36</v>
-      </c>
-      <c r="U22">
-        <v>1.33</v>
-      </c>
-      <c r="V22">
-        <v>1.61</v>
-      </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="X22">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="Z22">
-        <v>1.67</v>
+        <v>0.98</v>
       </c>
       <c r="AA22">
-        <v>3.49</v>
+        <v>3.01</v>
       </c>
       <c r="AB22">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
         <v>45105</v>
@@ -3175,13 +3175,13 @@
         <v>121</v>
       </c>
       <c r="G23">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="H23">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="I23">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J23">
         <v>1.08</v>
@@ -3196,10 +3196,10 @@
         <v>2.7</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P23">
         <v>1.51</v>
@@ -3282,52 +3282,52 @@
         <v>122</v>
       </c>
       <c r="G24">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H24">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="I24">
-        <v>5.09</v>
+        <v>4.56</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W24">
         <v>2.2</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2">
         <v>45105</v>
@@ -3380,7 +3380,7 @@
         <v>56</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
@@ -3389,96 +3389,96 @@
         <v>123</v>
       </c>
       <c r="G25">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="H25">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="I25">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="J25">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L25">
         <v>1.28</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>3.26</v>
       </c>
       <c r="N25">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O25">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="P25">
+        <v>1.42</v>
+      </c>
+      <c r="Q25">
+        <v>2.75</v>
+      </c>
+      <c r="R25">
+        <v>1.74</v>
+      </c>
+      <c r="S25">
+        <v>2.02</v>
+      </c>
+      <c r="T25">
         <v>1.36</v>
       </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>2.05</v>
-      </c>
-      <c r="S25">
-        <v>1.7</v>
-      </c>
-      <c r="T25">
-        <v>1.11</v>
-      </c>
       <c r="U25">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="V25">
-        <v>2.55</v>
+        <v>1.61</v>
       </c>
       <c r="W25">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="Y25">
-        <v>2.62</v>
+        <v>1.82</v>
       </c>
       <c r="Z25">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="AA25">
-        <v>4.03</v>
+        <v>3.49</v>
       </c>
       <c r="AB25">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="AC25">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AD25">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="AE25">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AF25">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AG25">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="AH25">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AI25">
-        <v>2.52</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2">
         <v>45105</v>
@@ -3487,7 +3487,7 @@
         <v>56</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>84</v>
@@ -3496,96 +3496,96 @@
         <v>124</v>
       </c>
       <c r="G26">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="H26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="J26">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="L26">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M26">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O26">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="P26">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="Q26">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S26">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="T26">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="U26">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>0.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y26">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="Z26">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="AA26">
-        <v>2.75</v>
+        <v>3.62</v>
       </c>
       <c r="AB26">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AI26">
-        <v>2.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
         <v>45105</v>
@@ -3603,67 +3603,67 @@
         <v>125</v>
       </c>
       <c r="G27">
-        <v>2.62</v>
+        <v>1.84</v>
       </c>
       <c r="H27">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="I27">
-        <v>2.75</v>
+        <v>3.69</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L27">
+        <v>1.55</v>
+      </c>
+      <c r="M27">
+        <v>2.4</v>
+      </c>
+      <c r="N27">
+        <v>2.56</v>
+      </c>
+      <c r="O27">
         <v>1.45</v>
       </c>
-      <c r="M27">
-        <v>2.55</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W27">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="X27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y27">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Z27">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AA27">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3710,67 +3710,67 @@
         <v>126</v>
       </c>
       <c r="G28">
+        <v>2.02</v>
+      </c>
+      <c r="H28">
+        <v>3.01</v>
+      </c>
+      <c r="I28">
+        <v>3.41</v>
+      </c>
+      <c r="J28">
+        <v>1.09</v>
+      </c>
+      <c r="K28">
+        <v>7.6</v>
+      </c>
+      <c r="L28">
+        <v>1.45</v>
+      </c>
+      <c r="M28">
+        <v>2.48</v>
+      </c>
+      <c r="N28">
+        <v>2.37</v>
+      </c>
+      <c r="O28">
+        <v>1.49</v>
+      </c>
+      <c r="P28">
+        <v>1.51</v>
+      </c>
+      <c r="Q28">
+        <v>2.37</v>
+      </c>
+      <c r="R28">
+        <v>2.02</v>
+      </c>
+      <c r="S28">
         <v>1.75</v>
       </c>
-      <c r="H28">
-        <v>3.3</v>
-      </c>
-      <c r="I28">
-        <v>4.42</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>1.73</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X28">
         <v>1.25</v>
       </c>
       <c r="Y28">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="Z28">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AA28">
-        <v>3.39</v>
+        <v>3.53</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
         <v>45105</v>
@@ -3817,67 +3817,67 @@
         <v>127</v>
       </c>
       <c r="G29">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="J29">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K29">
-        <v>5.5</v>
+        <v>9.9</v>
       </c>
       <c r="L29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M29">
-        <v>2.48</v>
+        <v>3.07</v>
       </c>
       <c r="N29">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="P29">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="Q29">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="R29">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="S29">
-        <v>1.53</v>
+        <v>1.84</v>
       </c>
       <c r="T29">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="U29">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="V29">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W29">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y29">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="Z29">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AA29">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3924,13 +3924,13 @@
         <v>128</v>
       </c>
       <c r="G30">
-        <v>2.17</v>
+        <v>1.65</v>
       </c>
       <c r="H30">
-        <v>2.9</v>
+        <v>3.34</v>
       </c>
       <c r="I30">
-        <v>3.38</v>
+        <v>4.69</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3972,19 +3972,19 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X30">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Z30">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AA30">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4031,67 +4031,67 @@
         <v>129</v>
       </c>
       <c r="G31">
-        <v>1.77</v>
+        <v>2.43</v>
       </c>
       <c r="H31">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="I31">
-        <v>4.42</v>
+        <v>2.78</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="O31">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W31">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y31">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="Z31">
-        <v>1.47</v>
+        <v>1.82</v>
       </c>
       <c r="AA31">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>45105</v>
@@ -4129,7 +4129,7 @@
         <v>58</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
@@ -4138,91 +4138,91 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>2.04</v>
+        <v>1.3</v>
       </c>
       <c r="H32">
-        <v>3.06</v>
+        <v>4.54</v>
       </c>
       <c r="I32">
-        <v>3.81</v>
+        <v>7.89</v>
       </c>
       <c r="J32">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="K32">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="N32">
-        <v>2.53</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P32">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="Q32">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R32">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="S32">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="T32">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="U32">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="V32">
-        <v>1.71</v>
+        <v>3.3</v>
       </c>
       <c r="W32">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Y32">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Z32">
-        <v>1.45</v>
+        <v>0.54</v>
       </c>
       <c r="AA32">
-        <v>3.02</v>
+        <v>2.18</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4245,96 +4245,96 @@
         <v>131</v>
       </c>
       <c r="G33">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="H33">
-        <v>3.6</v>
+        <v>5.14</v>
       </c>
       <c r="I33">
-        <v>4.5</v>
+        <v>10.88</v>
       </c>
       <c r="J33">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L33">
+        <v>1.17</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>1.65</v>
+      </c>
+      <c r="O33">
+        <v>2.1</v>
+      </c>
+      <c r="P33">
+        <v>1.25</v>
+      </c>
+      <c r="Q33">
+        <v>3.75</v>
+      </c>
+      <c r="R33">
+        <v>2.63</v>
+      </c>
+      <c r="S33">
+        <v>1.44</v>
+      </c>
+      <c r="T33">
+        <v>1.02</v>
+      </c>
+      <c r="U33">
+        <v>1.07</v>
+      </c>
+      <c r="V33">
+        <v>5.75</v>
+      </c>
+      <c r="W33">
+        <v>1.6</v>
+      </c>
+      <c r="X33">
+        <v>0.8</v>
+      </c>
+      <c r="Y33">
         <v>1.3</v>
       </c>
-      <c r="M33">
-        <v>3.4</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>1.78</v>
-      </c>
-      <c r="P33">
-        <v>1.4</v>
-      </c>
-      <c r="Q33">
-        <v>2.75</v>
-      </c>
-      <c r="R33">
-        <v>1.95</v>
-      </c>
-      <c r="S33">
-        <v>1.8</v>
-      </c>
-      <c r="T33">
-        <v>1.19</v>
-      </c>
-      <c r="U33">
-        <v>1.27</v>
-      </c>
-      <c r="V33">
-        <v>2.05</v>
-      </c>
-      <c r="W33">
-        <v>1.8</v>
-      </c>
-      <c r="X33">
-        <v>2.2</v>
-      </c>
-      <c r="Y33">
-        <v>2.23</v>
-      </c>
       <c r="Z33">
-        <v>1.71</v>
+        <v>0.87</v>
       </c>
       <c r="AA33">
-        <v>3.94</v>
+        <v>2.17</v>
       </c>
       <c r="AB33">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="AC33">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AD33">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="AE33">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AF33">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="AG33">
-        <v>2.41</v>
+        <v>1.81</v>
       </c>
       <c r="AH33">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="AI33">
-        <v>4.1</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>45105</v>
@@ -4343,7 +4343,7 @@
         <v>58</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>92</v>
@@ -4352,91 +4352,91 @@
         <v>132</v>
       </c>
       <c r="G34">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3.06</v>
       </c>
       <c r="I34">
-        <v>9.5</v>
+        <v>2.88</v>
       </c>
       <c r="J34">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="K34">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="L34">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="M34">
-        <v>4.33</v>
+        <v>2.7</v>
       </c>
       <c r="N34">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="O34">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="P34">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q34">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.73</v>
+      </c>
+      <c r="T34">
+        <v>1.39</v>
+      </c>
+      <c r="U34">
+        <v>1.34</v>
+      </c>
+      <c r="V34">
+        <v>1.51</v>
+      </c>
+      <c r="W34">
+        <v>2.17</v>
+      </c>
+      <c r="X34">
+        <v>1.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.4</v>
+      </c>
+      <c r="Z34">
+        <v>1.45</v>
+      </c>
+      <c r="AA34">
+        <v>2.85</v>
+      </c>
+      <c r="AB34">
         <v>1.91</v>
       </c>
-      <c r="S34">
-        <v>1.91</v>
-      </c>
-      <c r="T34">
-        <v>1.07</v>
-      </c>
-      <c r="U34">
-        <v>1.15</v>
-      </c>
-      <c r="V34">
-        <v>3.3</v>
-      </c>
-      <c r="W34">
-        <v>0.8</v>
-      </c>
-      <c r="X34">
-        <v>0.8</v>
-      </c>
-      <c r="Y34">
+      <c r="AC34">
+        <v>7</v>
+      </c>
+      <c r="AD34">
+        <v>2.3</v>
+      </c>
+      <c r="AE34">
+        <v>1.19</v>
+      </c>
+      <c r="AF34">
+        <v>1.36</v>
+      </c>
+      <c r="AG34">
         <v>1.64</v>
       </c>
-      <c r="Z34">
-        <v>0.54</v>
-      </c>
-      <c r="AA34">
-        <v>2.18</v>
-      </c>
-      <c r="AB34">
-        <v>1.14</v>
-      </c>
-      <c r="AC34">
-        <v>11</v>
-      </c>
-      <c r="AD34">
-        <v>7.5</v>
-      </c>
-      <c r="AE34">
-        <v>1.27</v>
-      </c>
-      <c r="AF34">
-        <v>1.48</v>
-      </c>
-      <c r="AG34">
-        <v>1.79</v>
-      </c>
       <c r="AH34">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AI34">
-        <v>3.5</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4459,96 +4459,96 @@
         <v>133</v>
       </c>
       <c r="G35">
-        <v>1.1</v>
+        <v>1.79</v>
       </c>
       <c r="H35">
+        <v>3.23</v>
+      </c>
+      <c r="I35">
+        <v>4.07</v>
+      </c>
+      <c r="J35">
+        <v>1.05</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>1.3</v>
+      </c>
+      <c r="M35">
+        <v>3.4</v>
+      </c>
+      <c r="N35">
+        <v>1.95</v>
+      </c>
+      <c r="O35">
+        <v>1.75</v>
+      </c>
+      <c r="P35">
+        <v>1.4</v>
+      </c>
+      <c r="Q35">
+        <v>2.75</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>1.19</v>
+      </c>
+      <c r="U35">
+        <v>1.27</v>
+      </c>
+      <c r="V35">
+        <v>2.05</v>
+      </c>
+      <c r="W35">
+        <v>1.8</v>
+      </c>
+      <c r="X35">
+        <v>2.2</v>
+      </c>
+      <c r="Y35">
+        <v>2.23</v>
+      </c>
+      <c r="Z35">
+        <v>1.71</v>
+      </c>
+      <c r="AA35">
+        <v>3.94</v>
+      </c>
+      <c r="AB35">
+        <v>1.53</v>
+      </c>
+      <c r="AC35">
         <v>7</v>
       </c>
-      <c r="I35">
-        <v>23</v>
-      </c>
-      <c r="J35">
-        <v>1.01</v>
-      </c>
-      <c r="K35">
-        <v>19</v>
-      </c>
-      <c r="L35">
-        <v>1.17</v>
-      </c>
-      <c r="M35">
-        <v>5</v>
-      </c>
-      <c r="N35">
-        <v>1.6</v>
-      </c>
-      <c r="O35">
-        <v>2.21</v>
-      </c>
-      <c r="P35">
-        <v>1.25</v>
-      </c>
-      <c r="Q35">
-        <v>3.75</v>
-      </c>
-      <c r="R35">
-        <v>2.63</v>
-      </c>
-      <c r="S35">
-        <v>1.44</v>
-      </c>
-      <c r="T35">
-        <v>1.02</v>
-      </c>
-      <c r="U35">
-        <v>1.07</v>
-      </c>
-      <c r="V35">
-        <v>5.75</v>
-      </c>
-      <c r="W35">
-        <v>1.6</v>
-      </c>
-      <c r="X35">
-        <v>0.8</v>
-      </c>
-      <c r="Y35">
-        <v>1.3</v>
-      </c>
-      <c r="Z35">
-        <v>0.87</v>
-      </c>
-      <c r="AA35">
-        <v>2.17</v>
-      </c>
-      <c r="AB35">
-        <v>1.01</v>
-      </c>
-      <c r="AC35">
-        <v>20</v>
-      </c>
       <c r="AD35">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="AE35">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="AF35">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="AG35">
-        <v>1.81</v>
+        <v>2.41</v>
       </c>
       <c r="AH35">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="AI35">
-        <v>2.63</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>45105</v>
@@ -4566,37 +4566,37 @@
         <v>134</v>
       </c>
       <c r="G36">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="H36">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="I36">
-        <v>2.95</v>
+        <v>2.56</v>
       </c>
       <c r="J36">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K36">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L36">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M36">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="N36">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O36">
         <v>1.55</v>
       </c>
       <c r="P36">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q36">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R36">
         <v>2</v>
@@ -4605,57 +4605,57 @@
         <v>1.73</v>
       </c>
       <c r="T36">
+        <v>1.47</v>
+      </c>
+      <c r="U36">
+        <v>1.35</v>
+      </c>
+      <c r="V36">
+        <v>1.42</v>
+      </c>
+      <c r="W36">
+        <v>1.17</v>
+      </c>
+      <c r="X36">
+        <v>1.29</v>
+      </c>
+      <c r="Y36">
+        <v>1.33</v>
+      </c>
+      <c r="Z36">
         <v>1.39</v>
       </c>
-      <c r="U36">
-        <v>1.34</v>
-      </c>
-      <c r="V36">
-        <v>1.51</v>
-      </c>
-      <c r="W36">
-        <v>2.17</v>
-      </c>
-      <c r="X36">
-        <v>1.5</v>
-      </c>
-      <c r="Y36">
-        <v>1.4</v>
-      </c>
-      <c r="Z36">
-        <v>1.45</v>
-      </c>
       <c r="AA36">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="AB36">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AC36">
         <v>7</v>
       </c>
       <c r="AD36">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AE36">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AG36">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AH36">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AI36">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>45105</v>
@@ -4673,31 +4673,31 @@
         <v>135</v>
       </c>
       <c r="G37">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H37">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="I37">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="J37">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L37">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M37">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P37">
         <v>1.53</v>
@@ -4706,63 +4706,63 @@
         <v>2.38</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S37">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T37">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="U37">
         <v>1.35</v>
       </c>
       <c r="V37">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="W37">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="X37">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="Y37">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Z37">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="AA37">
-        <v>2.72</v>
+        <v>2.51</v>
       </c>
       <c r="AB37">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AC37">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD37">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF37">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AG37">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AH37">
         <v>2.01</v>
       </c>
       <c r="AI37">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>45105</v>
@@ -4771,7 +4771,7 @@
         <v>58</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>96</v>
@@ -4780,96 +4780,96 @@
         <v>136</v>
       </c>
       <c r="G38">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="H38">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="I38">
+        <v>3.58</v>
+      </c>
+      <c r="J38">
+        <v>1.12</v>
+      </c>
+      <c r="K38">
         <v>5.5</v>
       </c>
-      <c r="J38">
-        <v>1.1</v>
-      </c>
-      <c r="K38">
-        <v>6.5</v>
-      </c>
       <c r="L38">
+        <v>1.53</v>
+      </c>
+      <c r="M38">
+        <v>2.35</v>
+      </c>
+      <c r="N38">
+        <v>2.55</v>
+      </c>
+      <c r="O38">
+        <v>1.5</v>
+      </c>
+      <c r="P38">
+        <v>1.58</v>
+      </c>
+      <c r="Q38">
+        <v>2.2</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>1.57</v>
+      </c>
+      <c r="T38">
+        <v>1.24</v>
+      </c>
+      <c r="U38">
         <v>1.36</v>
       </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <v>2.25</v>
-      </c>
-      <c r="O38">
-        <v>1.6</v>
-      </c>
-      <c r="P38">
-        <v>1.44</v>
-      </c>
-      <c r="Q38">
-        <v>2.63</v>
-      </c>
-      <c r="R38">
-        <v>2.2</v>
-      </c>
-      <c r="S38">
-        <v>1.62</v>
-      </c>
-      <c r="T38">
-        <v>1.12</v>
-      </c>
-      <c r="U38">
-        <v>1.22</v>
-      </c>
       <c r="V38">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="W38">
+        <v>2.5</v>
+      </c>
+      <c r="X38">
         <v>2</v>
       </c>
-      <c r="X38">
-        <v>0.67</v>
-      </c>
       <c r="Y38">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Z38">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AA38">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="AB38">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AG38">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AH38">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="AI38">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>45105</v>
@@ -4887,13 +4887,13 @@
         <v>137</v>
       </c>
       <c r="G39">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="H39">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I39">
-        <v>3.25</v>
+        <v>5.53</v>
       </c>
       <c r="J39">
         <v>1.1</v>
@@ -4902,76 +4902,76 @@
         <v>6.5</v>
       </c>
       <c r="L39">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="O39">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P39">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q39">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R39">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S39">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T39">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="U39">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="V39">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="W39">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y39">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="Z39">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AA39">
-        <v>2.51</v>
+        <v>3.06</v>
       </c>
       <c r="AB39">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AC39">
         <v>7.5</v>
       </c>
       <c r="AD39">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AE39">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AF39">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AG39">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="AH39">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="AI39">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4994,13 +4994,13 @@
         <v>138</v>
       </c>
       <c r="G40">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H40">
-        <v>4.75</v>
+        <v>4.36</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>7.53</v>
       </c>
       <c r="J40">
         <v>1.03</v>
@@ -5015,7 +5015,7 @@
         <v>3.75</v>
       </c>
       <c r="N40">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
         <v>2</v>
@@ -5104,10 +5104,10 @@
         <v>1.87</v>
       </c>
       <c r="H41">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J41">
         <v>1.04</v>
@@ -5122,10 +5122,10 @@
         <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O41">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P41">
         <v>1.38</v>
@@ -5164,28 +5164,28 @@
         <v>2.62</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
   </sheetData>
